--- a/REGULAR/ASSESSOR/TORRES, SONIA.xlsx
+++ b/REGULAR/ASSESSOR/TORRES, SONIA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="252">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1812,7 +1812,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A526" activePane="bottomLeft"/>
       <selection activeCell="B9" sqref="B9"/>
-      <selection pane="bottomLeft" activeCell="K536" sqref="K536"/>
+      <selection pane="bottomLeft" activeCell="I545" sqref="I545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1973,7 +1973,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>260.41800000000001</v>
+        <v>262.91800000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1983,7 +1983,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>318</v>
+        <v>320.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -13438,13 +13438,15 @@
         <v>45231</v>
       </c>
       <c r="B537" s="20"/>
-      <c r="C537" s="13"/>
+      <c r="C537" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D537" s="39"/>
       <c r="E537" s="9"/>
       <c r="F537" s="20"/>
-      <c r="G537" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G537" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H537" s="39"/>
       <c r="I537" s="9"/>
@@ -13455,19 +13457,25 @@
       <c r="A538" s="40">
         <v>45261</v>
       </c>
-      <c r="B538" s="20"/>
-      <c r="C538" s="13"/>
+      <c r="B538" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C538" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D538" s="39"/>
       <c r="E538" s="9"/>
       <c r="F538" s="20"/>
-      <c r="G538" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G538" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H538" s="39"/>
       <c r="I538" s="9"/>
       <c r="J538" s="11"/>
-      <c r="K538" s="20"/>
+      <c r="K538" s="48">
+        <v>45288</v>
+      </c>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
@@ -14328,7 +14336,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>578.41800000000001</v>
+        <v>583.41800000000001</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/ASSESSOR/TORRES, SONIA.xlsx
+++ b/REGULAR/ASSESSOR/TORRES, SONIA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="260">
   <si>
     <t>PERIOD</t>
   </si>
@@ -789,6 +789,30 @@
   </si>
   <si>
     <t>9/13-15,18-22/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-6-49)</t>
+  </si>
+  <si>
+    <t>UT(0-1-40)</t>
+  </si>
+  <si>
+    <t>UT(0-1-50)</t>
+  </si>
+  <si>
+    <t>UT(0-4-35)</t>
+  </si>
+  <si>
+    <t>UT(0-4-22)</t>
+  </si>
+  <si>
+    <t>UT(0-4-30)</t>
+  </si>
+  <si>
+    <t>UT(0-0-25)</t>
   </si>
 </sst>
 </file>
@@ -1478,7 +1502,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K581" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K591" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1807,12 +1831,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K581"/>
+  <dimension ref="A2:K591"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A526" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A523" activePane="bottomLeft"/>
       <selection activeCell="B9" sqref="B9"/>
-      <selection pane="bottomLeft" activeCell="I545" sqref="I545"/>
+      <selection pane="bottomLeft" activeCell="E530" sqref="E530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1973,7 +1997,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>262.91800000000001</v>
+        <v>259.18300000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -13190,34 +13214,32 @@
       </c>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A527" s="40">
-        <v>44986</v>
-      </c>
+      <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C527" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D527" s="39"/>
+        <v>259</v>
+      </c>
+      <c r="C527" s="13"/>
+      <c r="D527" s="39">
+        <v>5.2000000000000011E-2</v>
+      </c>
       <c r="E527" s="9"/>
       <c r="F527" s="20"/>
-      <c r="G527" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G527" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H527" s="39"/>
       <c r="I527" s="9"/>
       <c r="J527" s="11"/>
-      <c r="K527" s="48">
-        <v>45001</v>
-      </c>
+      <c r="K527" s="48"/>
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B528" s="20"/>
+        <v>44986</v>
+      </c>
+      <c r="B528" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C528" s="13">
         <v>1.25</v>
       </c>
@@ -13231,66 +13253,60 @@
       <c r="H528" s="39"/>
       <c r="I528" s="9"/>
       <c r="J528" s="11"/>
-      <c r="K528" s="20"/>
+      <c r="K528" s="48">
+        <v>45001</v>
+      </c>
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A529" s="40">
-        <v>45047</v>
-      </c>
+      <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C529" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D529" s="39"/>
+        <v>247</v>
+      </c>
+      <c r="C529" s="13"/>
+      <c r="D529" s="39">
+        <v>0.1</v>
+      </c>
       <c r="E529" s="9"/>
       <c r="F529" s="20"/>
-      <c r="G529" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H529" s="39">
-        <v>1</v>
-      </c>
+      <c r="G529" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H529" s="39"/>
       <c r="I529" s="9"/>
       <c r="J529" s="11"/>
-      <c r="K529" s="48">
-        <v>45048</v>
-      </c>
+      <c r="K529" s="48"/>
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
-        <v>45078</v>
+        <v>45017</v>
       </c>
       <c r="B530" s="20" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="C530" s="13">
         <v>1.25</v>
       </c>
-      <c r="D530" s="39"/>
+      <c r="D530" s="39">
+        <v>2.700000000000001E-2</v>
+      </c>
       <c r="E530" s="9"/>
       <c r="F530" s="20"/>
       <c r="G530" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H530" s="39">
-        <v>2</v>
-      </c>
+      <c r="H530" s="39"/>
       <c r="I530" s="9"/>
       <c r="J530" s="11"/>
-      <c r="K530" s="20" t="s">
-        <v>240</v>
-      </c>
+      <c r="K530" s="20"/>
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
-        <v>45108</v>
+        <v>45047</v>
       </c>
       <c r="B531" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C531" s="13">
         <v>1.25</v>
@@ -13303,141 +13319,133 @@
         <v>1.25</v>
       </c>
       <c r="H531" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I531" s="9"/>
       <c r="J531" s="11"/>
-      <c r="K531" s="20" t="s">
-        <v>241</v>
+      <c r="K531" s="48">
+        <v>45048</v>
       </c>
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A532" s="40">
-        <v>45139</v>
-      </c>
+      <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C532" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D532" s="39"/>
+        <v>258</v>
+      </c>
+      <c r="C532" s="13"/>
+      <c r="D532" s="39">
+        <v>0.56200000000000006</v>
+      </c>
       <c r="E532" s="9"/>
       <c r="F532" s="20"/>
-      <c r="G532" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H532" s="39">
-        <v>1</v>
-      </c>
+      <c r="G532" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H532" s="39"/>
       <c r="I532" s="9"/>
       <c r="J532" s="11"/>
-      <c r="K532" s="48">
-        <v>45141</v>
-      </c>
+      <c r="K532" s="48"/>
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A533" s="40"/>
+      <c r="A533" s="40">
+        <v>45078</v>
+      </c>
       <c r="B533" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C533" s="13"/>
+        <v>49</v>
+      </c>
+      <c r="C533" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D533" s="39"/>
       <c r="E533" s="9"/>
       <c r="F533" s="20"/>
-      <c r="G533" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G533" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H533" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I533" s="9"/>
       <c r="J533" s="11"/>
-      <c r="K533" s="48">
-        <v>45154</v>
+      <c r="K533" s="20" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A534" s="40">
-        <v>45170</v>
-      </c>
+      <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C534" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D534" s="39"/>
+        <v>257</v>
+      </c>
+      <c r="C534" s="13"/>
+      <c r="D534" s="39">
+        <v>0.54600000000000004</v>
+      </c>
       <c r="E534" s="9"/>
       <c r="F534" s="20"/>
-      <c r="G534" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H534" s="39">
-        <v>3</v>
-      </c>
+      <c r="G534" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H534" s="39"/>
       <c r="I534" s="9"/>
       <c r="J534" s="11"/>
-      <c r="K534" s="20" t="s">
-        <v>249</v>
-      </c>
+      <c r="K534" s="20"/>
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A535" s="40"/>
+      <c r="A535" s="40">
+        <v>45108</v>
+      </c>
       <c r="B535" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="C535" s="13"/>
-      <c r="D535" s="39">
-        <v>8</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C535" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D535" s="39"/>
       <c r="E535" s="9"/>
       <c r="F535" s="20"/>
-      <c r="G535" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H535" s="39"/>
+      <c r="G535" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H535" s="39">
+        <v>2</v>
+      </c>
       <c r="I535" s="9"/>
       <c r="J535" s="11"/>
       <c r="K535" s="20" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A536" s="40">
-        <v>45200</v>
-      </c>
+      <c r="A536" s="40"/>
       <c r="B536" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C536" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D536" s="39"/>
+        <v>256</v>
+      </c>
+      <c r="C536" s="13"/>
+      <c r="D536" s="39">
+        <v>0.57299999999999995</v>
+      </c>
       <c r="E536" s="9"/>
       <c r="F536" s="20"/>
-      <c r="G536" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H536" s="39">
-        <v>1</v>
-      </c>
+      <c r="G536" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H536" s="39"/>
       <c r="I536" s="9"/>
       <c r="J536" s="11"/>
-      <c r="K536" s="48">
-        <v>45223</v>
-      </c>
+      <c r="K536" s="20"/>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B537" s="20"/>
+        <v>45139</v>
+      </c>
+      <c r="B537" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C537" s="13">
         <v>1.25</v>
       </c>
@@ -13448,40 +13456,46 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H537" s="39"/>
+      <c r="H537" s="39">
+        <v>1</v>
+      </c>
       <c r="I537" s="9"/>
       <c r="J537" s="11"/>
-      <c r="K537" s="20"/>
+      <c r="K537" s="48">
+        <v>45141</v>
+      </c>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A538" s="40">
-        <v>45261</v>
-      </c>
+      <c r="A538" s="40"/>
       <c r="B538" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C538" s="13">
-        <v>1.25</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C538" s="13"/>
       <c r="D538" s="39"/>
       <c r="E538" s="9"/>
       <c r="F538" s="20"/>
-      <c r="G538" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H538" s="39"/>
+      <c r="G538" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H538" s="39">
+        <v>1</v>
+      </c>
       <c r="I538" s="9"/>
       <c r="J538" s="11"/>
       <c r="K538" s="48">
-        <v>45288</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
-      <c r="B539" s="20"/>
+      <c r="B539" s="20" t="s">
+        <v>229</v>
+      </c>
       <c r="C539" s="13"/>
-      <c r="D539" s="39"/>
+      <c r="D539" s="39">
+        <v>0.56499999999999995</v>
+      </c>
       <c r="E539" s="9"/>
       <c r="F539" s="20"/>
       <c r="G539" s="13" t="str">
@@ -13491,29 +13505,43 @@
       <c r="H539" s="39"/>
       <c r="I539" s="9"/>
       <c r="J539" s="11"/>
-      <c r="K539" s="20"/>
+      <c r="K539" s="48"/>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A540" s="40"/>
-      <c r="B540" s="20"/>
-      <c r="C540" s="13"/>
+      <c r="A540" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B540" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C540" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D540" s="39"/>
       <c r="E540" s="9"/>
       <c r="F540" s="20"/>
-      <c r="G540" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H540" s="39"/>
+      <c r="G540" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H540" s="39">
+        <v>3</v>
+      </c>
       <c r="I540" s="9"/>
       <c r="J540" s="11"/>
-      <c r="K540" s="20"/>
+      <c r="K540" s="20" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
-      <c r="B541" s="20"/>
+      <c r="B541" s="20" t="s">
+        <v>250</v>
+      </c>
       <c r="C541" s="13"/>
-      <c r="D541" s="39"/>
+      <c r="D541" s="39">
+        <v>8</v>
+      </c>
       <c r="E541" s="9"/>
       <c r="F541" s="20"/>
       <c r="G541" s="13" t="str">
@@ -13523,13 +13551,19 @@
       <c r="H541" s="39"/>
       <c r="I541" s="9"/>
       <c r="J541" s="11"/>
-      <c r="K541" s="20"/>
+      <c r="K541" s="20" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40"/>
-      <c r="B542" s="20"/>
+      <c r="B542" s="20" t="s">
+        <v>148</v>
+      </c>
       <c r="C542" s="13"/>
-      <c r="D542" s="39"/>
+      <c r="D542" s="39">
+        <v>2.1000000000000005E-2</v>
+      </c>
       <c r="E542" s="9"/>
       <c r="F542" s="20"/>
       <c r="G542" s="13" t="str">
@@ -13542,26 +13576,40 @@
       <c r="K542" s="20"/>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A543" s="40"/>
-      <c r="B543" s="20"/>
-      <c r="C543" s="13"/>
+      <c r="A543" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B543" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C543" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D543" s="39"/>
       <c r="E543" s="9"/>
       <c r="F543" s="20"/>
-      <c r="G543" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H543" s="39"/>
+      <c r="G543" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H543" s="39">
+        <v>1</v>
+      </c>
       <c r="I543" s="9"/>
       <c r="J543" s="11"/>
-      <c r="K543" s="20"/>
+      <c r="K543" s="48">
+        <v>45223</v>
+      </c>
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40"/>
-      <c r="B544" s="20"/>
+      <c r="B544" s="20" t="s">
+        <v>255</v>
+      </c>
       <c r="C544" s="13"/>
-      <c r="D544" s="39"/>
+      <c r="D544" s="39">
+        <v>0.22900000000000001</v>
+      </c>
       <c r="E544" s="9"/>
       <c r="F544" s="20"/>
       <c r="G544" s="13" t="str">
@@ -13571,18 +13619,26 @@
       <c r="H544" s="39"/>
       <c r="I544" s="9"/>
       <c r="J544" s="11"/>
-      <c r="K544" s="20"/>
+      <c r="K544" s="48"/>
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A545" s="40"/>
-      <c r="B545" s="20"/>
-      <c r="C545" s="13"/>
-      <c r="D545" s="39"/>
+      <c r="A545" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B545" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C545" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D545" s="39">
+        <v>0.20800000000000002</v>
+      </c>
       <c r="E545" s="9"/>
       <c r="F545" s="20"/>
-      <c r="G545" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G545" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H545" s="39"/>
       <c r="I545" s="9"/>
@@ -13590,26 +13646,38 @@
       <c r="K545" s="20"/>
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A546" s="40"/>
-      <c r="B546" s="20"/>
-      <c r="C546" s="13"/>
+      <c r="A546" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B546" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C546" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D546" s="39"/>
       <c r="E546" s="9"/>
       <c r="F546" s="20"/>
-      <c r="G546" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G546" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H546" s="39"/>
       <c r="I546" s="9"/>
       <c r="J546" s="11"/>
-      <c r="K546" s="20"/>
+      <c r="K546" s="48">
+        <v>45288</v>
+      </c>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
-      <c r="B547" s="20"/>
+      <c r="B547" s="20" t="s">
+        <v>253</v>
+      </c>
       <c r="C547" s="13"/>
-      <c r="D547" s="39"/>
+      <c r="D547" s="39">
+        <v>0.85199999999999998</v>
+      </c>
       <c r="E547" s="9"/>
       <c r="F547" s="20"/>
       <c r="G547" s="13" t="str">
@@ -13619,10 +13687,12 @@
       <c r="H547" s="39"/>
       <c r="I547" s="9"/>
       <c r="J547" s="11"/>
-      <c r="K547" s="20"/>
+      <c r="K547" s="48"/>
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A548" s="40"/>
+      <c r="A548" s="47" t="s">
+        <v>252</v>
+      </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
       <c r="D548" s="39"/>
@@ -13635,10 +13705,12 @@
       <c r="H548" s="39"/>
       <c r="I548" s="9"/>
       <c r="J548" s="11"/>
-      <c r="K548" s="20"/>
+      <c r="K548" s="48"/>
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A549" s="40"/>
+      <c r="A549" s="40">
+        <v>45292</v>
+      </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
       <c r="D549" s="39"/>
@@ -13654,7 +13726,9 @@
       <c r="K549" s="20"/>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A550" s="40"/>
+      <c r="A550" s="40">
+        <v>45323</v>
+      </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
       <c r="D550" s="39"/>
@@ -13670,7 +13744,9 @@
       <c r="K550" s="20"/>
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A551" s="40"/>
+      <c r="A551" s="40">
+        <v>45352</v>
+      </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
       <c r="D551" s="39"/>
@@ -13686,7 +13762,9 @@
       <c r="K551" s="20"/>
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A552" s="40"/>
+      <c r="A552" s="40">
+        <v>45383</v>
+      </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
       <c r="D552" s="39"/>
@@ -13702,7 +13780,9 @@
       <c r="K552" s="20"/>
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A553" s="40"/>
+      <c r="A553" s="40">
+        <v>45413</v>
+      </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
       <c r="D553" s="39"/>
@@ -13718,7 +13798,9 @@
       <c r="K553" s="20"/>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A554" s="40"/>
+      <c r="A554" s="40">
+        <v>45444</v>
+      </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
       <c r="D554" s="39"/>
@@ -13734,7 +13816,9 @@
       <c r="K554" s="20"/>
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A555" s="40"/>
+      <c r="A555" s="40">
+        <v>45474</v>
+      </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
       <c r="D555" s="39"/>
@@ -13750,7 +13834,9 @@
       <c r="K555" s="20"/>
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A556" s="40"/>
+      <c r="A556" s="40">
+        <v>45505</v>
+      </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
       <c r="D556" s="39"/>
@@ -13766,7 +13852,9 @@
       <c r="K556" s="20"/>
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A557" s="40"/>
+      <c r="A557" s="40">
+        <v>45536</v>
+      </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
       <c r="D557" s="39"/>
@@ -14151,19 +14239,179 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
-      <c r="B581" s="15"/>
-      <c r="C581" s="41"/>
-      <c r="D581" s="42"/>
+      <c r="B581" s="20"/>
+      <c r="C581" s="13"/>
+      <c r="D581" s="39"/>
       <c r="E581" s="9"/>
-      <c r="F581" s="15"/>
-      <c r="G581" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H581" s="42"/>
+      <c r="F581" s="20"/>
+      <c r="G581" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H581" s="39"/>
       <c r="I581" s="9"/>
-      <c r="J581" s="12"/>
-      <c r="K581" s="15"/>
+      <c r="J581" s="11"/>
+      <c r="K581" s="20"/>
+    </row>
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A582" s="40"/>
+      <c r="B582" s="20"/>
+      <c r="C582" s="13"/>
+      <c r="D582" s="39"/>
+      <c r="E582" s="9"/>
+      <c r="F582" s="20"/>
+      <c r="G582" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H582" s="39"/>
+      <c r="I582" s="9"/>
+      <c r="J582" s="11"/>
+      <c r="K582" s="20"/>
+    </row>
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A583" s="40"/>
+      <c r="B583" s="20"/>
+      <c r="C583" s="13"/>
+      <c r="D583" s="39"/>
+      <c r="E583" s="9"/>
+      <c r="F583" s="20"/>
+      <c r="G583" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H583" s="39"/>
+      <c r="I583" s="9"/>
+      <c r="J583" s="11"/>
+      <c r="K583" s="20"/>
+    </row>
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A584" s="40"/>
+      <c r="B584" s="20"/>
+      <c r="C584" s="13"/>
+      <c r="D584" s="39"/>
+      <c r="E584" s="9"/>
+      <c r="F584" s="20"/>
+      <c r="G584" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H584" s="39"/>
+      <c r="I584" s="9"/>
+      <c r="J584" s="11"/>
+      <c r="K584" s="20"/>
+    </row>
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A585" s="40"/>
+      <c r="B585" s="20"/>
+      <c r="C585" s="13"/>
+      <c r="D585" s="39"/>
+      <c r="E585" s="9"/>
+      <c r="F585" s="20"/>
+      <c r="G585" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H585" s="39"/>
+      <c r="I585" s="9"/>
+      <c r="J585" s="11"/>
+      <c r="K585" s="20"/>
+    </row>
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A586" s="40"/>
+      <c r="B586" s="20"/>
+      <c r="C586" s="13"/>
+      <c r="D586" s="39"/>
+      <c r="E586" s="9"/>
+      <c r="F586" s="20"/>
+      <c r="G586" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H586" s="39"/>
+      <c r="I586" s="9"/>
+      <c r="J586" s="11"/>
+      <c r="K586" s="20"/>
+    </row>
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A587" s="40"/>
+      <c r="B587" s="20"/>
+      <c r="C587" s="13"/>
+      <c r="D587" s="39"/>
+      <c r="E587" s="9"/>
+      <c r="F587" s="20"/>
+      <c r="G587" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H587" s="39"/>
+      <c r="I587" s="9"/>
+      <c r="J587" s="11"/>
+      <c r="K587" s="20"/>
+    </row>
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A588" s="40"/>
+      <c r="B588" s="20"/>
+      <c r="C588" s="13"/>
+      <c r="D588" s="39"/>
+      <c r="E588" s="9"/>
+      <c r="F588" s="20"/>
+      <c r="G588" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H588" s="39"/>
+      <c r="I588" s="9"/>
+      <c r="J588" s="11"/>
+      <c r="K588" s="20"/>
+    </row>
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A589" s="40"/>
+      <c r="B589" s="20"/>
+      <c r="C589" s="13"/>
+      <c r="D589" s="39"/>
+      <c r="E589" s="9"/>
+      <c r="F589" s="20"/>
+      <c r="G589" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H589" s="39"/>
+      <c r="I589" s="9"/>
+      <c r="J589" s="11"/>
+      <c r="K589" s="20"/>
+    </row>
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A590" s="40"/>
+      <c r="B590" s="20"/>
+      <c r="C590" s="13"/>
+      <c r="D590" s="39"/>
+      <c r="E590" s="9"/>
+      <c r="F590" s="20"/>
+      <c r="G590" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H590" s="39"/>
+      <c r="I590" s="9"/>
+      <c r="J590" s="11"/>
+      <c r="K590" s="20"/>
+    </row>
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A591" s="40"/>
+      <c r="B591" s="15"/>
+      <c r="C591" s="41"/>
+      <c r="D591" s="42"/>
+      <c r="E591" s="9"/>
+      <c r="F591" s="15"/>
+      <c r="G591" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H591" s="42"/>
+      <c r="I591" s="9"/>
+      <c r="J591" s="12"/>
+      <c r="K591" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14279,15 +14527,13 @@
       <c r="D3" s="11">
         <v>0</v>
       </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G3" s="44">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>2.9000000000000012E-2</v>
+        <v>5.2000000000000011E-2</v>
       </c>
       <c r="J3" s="46"/>
       <c r="K3" s="35">
@@ -14336,7 +14582,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>583.41800000000001</v>
+        <v>579.68299999999999</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
